--- a/data/trans_camb/P22_R2-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P22_R2-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-1.290917409609092</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.5284586677312728</v>
+        <v>0.5284586677312724</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-0.5986103337162447</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.8802256967897193</v>
+        <v>-0.7580291896024257</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.080428823190204</v>
+        <v>-2.955422815313714</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.317973348181732</v>
+        <v>-1.328202941469072</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.986779741674112</v>
+        <v>-2.133201036493846</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.289712541294523</v>
+        <v>-2.220413333975469</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.3013475063598449</v>
+        <v>-0.4562221045856309</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.084943666820277</v>
+        <v>-1.097892145276867</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.192490271479252</v>
+        <v>-2.089438611174455</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.3653393632452485</v>
+        <v>-0.2595513765422362</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.524447214789609</v>
+        <v>2.681643781037723</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.1366392539908932</v>
+        <v>-0.1039195664141603</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.716998065068756</v>
+        <v>2.710073569741361</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.744230773054395</v>
+        <v>0.7567703074471933</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2948983007715529</v>
+        <v>0.3000018719057035</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.37706873265022</v>
+        <v>3.312173526414472</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.239964071212603</v>
+        <v>1.209024233297774</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.2071391673111033</v>
+        <v>-0.2174293497472245</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.351922059703649</v>
+        <v>2.44889917314904</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.596601559820634</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.2442288430866252</v>
+        <v>0.244228843086625</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.2265021474764771</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2920670978646936</v>
+        <v>-0.2772526703493909</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8621531211813874</v>
+        <v>-0.849795415346085</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4683744763055016</v>
+        <v>-0.491355050787066</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5783813110725842</v>
+        <v>-0.5863056563063115</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6348888144846326</v>
+        <v>-0.6376212691026907</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1185726505835418</v>
+        <v>-0.1459260348167402</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3452540762067247</v>
+        <v>-0.3482509466734865</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.671563827926654</v>
+        <v>-0.6583407924266851</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1253287437174308</v>
+        <v>-0.09730409672371002</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.007879680305243</v>
+        <v>2.237947552065318</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.02005558571404078</v>
+        <v>0.02924690347057813</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.231855069366789</v>
+        <v>2.208830343447828</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3975467156915499</v>
+        <v>0.4515710506344061</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1646466704548671</v>
+        <v>0.1754783113411618</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.769955321654394</v>
+        <v>1.865405393684087</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7732736663853361</v>
+        <v>0.6751888026395331</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.09835988939948009</v>
+        <v>-0.07550416650559043</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.246742527898191</v>
+        <v>1.291911584302701</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-0.7357427922364608</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>1.08155814486619</v>
+        <v>1.081558144866189</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.151641479858446</v>
+        <v>-3.076802475708307</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.017212874393482</v>
+        <v>-3.942554988863294</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.091584164222546</v>
+        <v>-3.00073258770484</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.8706821638528743</v>
+        <v>-0.9701967441841141</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.7671523107021196</v>
+        <v>-0.8055744682573527</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.535405246310707</v>
+        <v>1.427515768692377</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.538683430453926</v>
+        <v>-1.746243250411723</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.949057902368804</v>
+        <v>-1.987837237491467</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.2482305143002472</v>
+        <v>-0.1112648629686869</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2921572054021959</v>
+        <v>0.4005082789491272</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.6705158260466446</v>
+        <v>-0.4384971441715136</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5902235709374745</v>
+        <v>0.5690673386956602</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.185587593638437</v>
+        <v>2.157750767481641</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.594107009728336</v>
+        <v>2.749151921563772</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.923228487128273</v>
+        <v>4.946904235053231</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8671376244893185</v>
+        <v>0.7688537483161899</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5582213683828503</v>
+        <v>0.4567261573548119</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.375637059367298</v>
+        <v>2.368811997486825</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.1805329294596325</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.2653873912649423</v>
+        <v>0.2653873912649421</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5255098943829694</v>
+        <v>-0.5242417739302063</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6711636874574355</v>
+        <v>-0.6610791352631993</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5306897106172569</v>
+        <v>-0.4949465153522645</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2317223264621347</v>
+        <v>-0.2620431323342151</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2146652194600227</v>
+        <v>-0.2303499365035235</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3817215945393895</v>
+        <v>0.3360256157930734</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3340077191261986</v>
+        <v>-0.3617337369633537</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4104125287175705</v>
+        <v>-0.4268678244112065</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.06115138702508737</v>
+        <v>-0.02502959004638895</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.09169021527361228</v>
+        <v>0.1065102517120785</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.120872674573017</v>
+        <v>-0.08354881535268273</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1529847910566737</v>
+        <v>0.1506045096775706</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.9642223716277908</v>
+        <v>0.9388195951920398</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.121787507132952</v>
+        <v>1.164613718413352</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.106930108799337</v>
+        <v>2.140312698690749</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2463047804463944</v>
+        <v>0.2204526010690118</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1679708527442714</v>
+        <v>0.1423809615993346</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.6751449694190856</v>
+        <v>0.6900914096651708</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-0.7947241855811298</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>4.848138475464532</v>
+        <v>4.848138475464535</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.8931281984598881</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.928961661193372</v>
+        <v>-3.882322300691659</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.215944750465161</v>
+        <v>-4.167314243305767</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.097029087297062</v>
+        <v>-1.479157755806957</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.068538494400107</v>
+        <v>-1.976251739242074</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.862251279979658</v>
+        <v>-2.911091309440763</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.433056387171774</v>
+        <v>2.627140918013276</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.462181101905334</v>
+        <v>-2.562986474398853</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.909323490352024</v>
+        <v>-3.044482583495053</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.243759689033963</v>
+        <v>1.257910994940702</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6105153270974882</v>
+        <v>0.7172318188582355</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4243805177614803</v>
+        <v>0.5202416789406076</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.910380483150199</v>
+        <v>3.662276572296345</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.346484620853743</v>
+        <v>2.053217798676569</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.557683162576529</v>
+        <v>1.337862998677678</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.929838462561257</v>
+        <v>7.109309747160077</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7018647036387585</v>
+        <v>0.7149010650465085</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1733159816321997</v>
+        <v>0.1214234150841645</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.764438041793245</v>
+        <v>4.540401824325905</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.1401791506648035</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8551494293570804</v>
+        <v>0.8551494293570809</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.1367526745258724</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4683739675446201</v>
+        <v>-0.4776066734425712</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5028268128487777</v>
+        <v>-0.5074249786780082</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1325978839206904</v>
+        <v>-0.1748866845856654</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3131301996183963</v>
+        <v>-0.301771048137462</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.451737365415684</v>
+        <v>-0.4301249701246365</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3395936122645238</v>
+        <v>0.3653287396441807</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3417929036699739</v>
+        <v>-0.350445516404202</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4121876292382644</v>
+        <v>-0.4143364866044817</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.164319728578438</v>
+        <v>0.1761609992127591</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.09698992286830391</v>
+        <v>0.1241816031785695</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.07078943845689555</v>
+        <v>0.07741830169139241</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.6224154054727805</v>
+        <v>0.5955338816880537</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4904564848385178</v>
+        <v>0.4635445865769232</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3423652783743958</v>
+        <v>0.3104919167859965</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.54383503209759</v>
+        <v>1.512135530834809</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1286744868289533</v>
+        <v>0.1273293721289492</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.02819412113546805</v>
+        <v>0.02017398830707647</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.8167547280005945</v>
+        <v>0.8022974688363764</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-6.186227087910822</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.595841498841033</v>
+        <v>4.595841498841027</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-11.17353497900633</v>
+        <v>-11.36112965676804</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-10.71315611666772</v>
+        <v>-10.80424670156277</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.424845808237444</v>
+        <v>1.666104006041072</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-14.33371896166191</v>
+        <v>-14.54992999367071</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-11.67187109175969</v>
+        <v>-11.39562771901731</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.025566594678362</v>
+        <v>-1.85267274082713</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-11.10965885410972</v>
+        <v>-11.06648182127977</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-9.631744598230195</v>
+        <v>-9.217045289351805</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.491405748404714</v>
+        <v>1.5089275067957</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-2.366672814106073</v>
+        <v>-2.830698204348415</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.742821022629473</v>
+        <v>-2.153143236583412</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.40229654049912</v>
+        <v>10.65078397247129</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-4.435868685649806</v>
+        <v>-4.641105610131293</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-1.3771748752172</v>
+        <v>-1.314331785348821</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.478289376411254</v>
+        <v>7.695777069146301</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-4.651659734476502</v>
+        <v>-4.689991381494688</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-2.877387420547084</v>
+        <v>-2.747288939276788</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>8.0002421905288</v>
+        <v>7.588727317134058</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.3914032848558999</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2907794094463048</v>
+        <v>0.2907794094463044</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6586929194113724</v>
+        <v>-0.6424104460419762</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6065391110970495</v>
+        <v>-0.6096651815825233</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.0763753446641148</v>
+        <v>0.08960158897319212</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.7121735048046255</v>
+        <v>-0.7122329193611439</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5672442563875162</v>
+        <v>-0.5676129689034346</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1018494950014047</v>
+        <v>-0.09251398712455725</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.6279396003865427</v>
+        <v>-0.6240216774970585</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5324267724732337</v>
+        <v>-0.5281744412460156</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.07310504089148011</v>
+        <v>0.08251179154794279</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.1882560177638111</v>
+        <v>-0.2139975927991578</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1282083084796636</v>
+        <v>-0.1560898398402097</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.8538568452307138</v>
+        <v>0.8768827478662617</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.3365654436322141</v>
+        <v>-0.3036060990997515</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.09971410793341599</v>
+        <v>-0.08623007556514738</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5506313479416615</v>
+        <v>0.5537608736120654</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.3287425132702583</v>
+        <v>-0.3366093158270886</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1957944566465021</v>
+        <v>-0.1972024593519455</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.5777133040945166</v>
+        <v>0.5752652747689397</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-0.8622098957709003</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>5.298302757485525</v>
+        <v>5.298302757485523</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-1.517285451081957</v>
@@ -1520,7 +1520,7 @@
         <v>-1.939256634703439</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>4.239111808501772</v>
+        <v>4.239111808501769</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.109874035711389</v>
+        <v>-3.095464257224582</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.154169093479704</v>
+        <v>-4.285953447625591</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.79423062148571</v>
+        <v>1.786900779625273</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.098371505670191</v>
+        <v>-2.080055912831651</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.926524530846932</v>
+        <v>-1.988468881211826</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>4.057369908541506</v>
+        <v>4.246443613242407</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.261814988560877</v>
+        <v>-2.245486606481497</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.637446942991472</v>
+        <v>-2.723513891780807</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>3.318203313323929</v>
+        <v>3.288166717729783</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.8701674869888213</v>
+        <v>-0.8502244872032083</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.950743731243864</v>
+        <v>-1.949513862209756</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.695474547953356</v>
+        <v>4.701420753406661</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-0.009828269274205159</v>
+        <v>0.1170646324847221</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1333908168072022</v>
+        <v>0.1651958215038978</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.46763645107823</v>
+        <v>6.566488117303618</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-0.7393588133437711</v>
+        <v>-0.7938346508185791</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-1.222860450854111</v>
+        <v>-1.185597679616158</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.081349389568942</v>
+        <v>5.17461666661844</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>-0.3282557549707558</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.7175496126731018</v>
+        <v>0.7175496126731014</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4305362958925853</v>
+        <v>-0.427807792825158</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5654655337542654</v>
+        <v>-0.5781190467561509</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.2311481098036103</v>
+        <v>0.2397304663181541</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3741389659066062</v>
+        <v>-0.3636886676096162</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3332931279870973</v>
+        <v>-0.3347560088582108</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7075266252259648</v>
+        <v>0.7419177058455967</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.3585446973635175</v>
+        <v>-0.3578582687687934</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4228246157477702</v>
+        <v>-0.4267373185818511</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.5165918496993334</v>
+        <v>0.5243060131553325</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.1377798322439613</v>
+        <v>-0.136508878799659</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.3139306545026526</v>
+        <v>-0.3181292422823486</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7621122023013022</v>
+        <v>0.7723822678730438</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.001726715980963827</v>
+        <v>0.02526586186757809</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.02957222417424971</v>
+        <v>0.04339286638109541</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.39949090196934</v>
+        <v>1.412080400212256</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.1316431791602242</v>
+        <v>-0.1411419899432685</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.2218272577927143</v>
+        <v>-0.2145127436081692</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.9183083729879287</v>
+        <v>0.9393657104285027</v>
       </c>
     </row>
     <row r="34">
